--- a/gbif-ipt-docs/downloads/event_ipt_template_v2_example_data.xlsx
+++ b/gbif-ipt-docs/downloads/event_ipt_template_v2_example_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2180" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="6" r:id="rId1"/>
@@ -883,7 +883,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="121">
   <si>
     <t>occurrenceID</t>
   </si>
@@ -1332,6 +1332,12 @@
       <t>. Enter lists using the pipe (“|”) character as a separator, for applicable DwC terms only.</t>
     </r>
   </si>
+  <si>
+    <t>This dataset has been indexed by GBIF. To see how GBIF indexes the data go here:</t>
+  </si>
+  <si>
+    <t>http://www.gbif.org/dataset/647ae6f8-8e26-4189-b448-02b45b7ad884</t>
+  </si>
 </sst>
 </file>
 
@@ -1340,7 +1346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1443,6 +1449,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1771,7 +1785,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
@@ -1832,6 +1846,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="174">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3460,7 +3477,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3515,106 +3532,123 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="17"/>
-      <c r="B9" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28">
+      <c r="B9" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="17"/>
-      <c r="B10" s="24" t="s">
-        <v>108</v>
+      <c r="B10" s="26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="17"/>
-      <c r="B11" s="14"/>
-    </row>
-    <row r="12" spans="1:2" ht="16" thickBot="1">
-      <c r="A12" s="18" t="s">
+      <c r="B11" s="32"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28">
+      <c r="A13" s="17"/>
+      <c r="B13" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:2" ht="16" thickBot="1">
+      <c r="A15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="75">
-      <c r="A13" s="12" t="s">
+    <row r="16" spans="1:2" ht="75">
+      <c r="A16" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="12"/>
-      <c r="B16" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="12"/>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="12"/>
+      <c r="B19" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="28" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="55" customHeight="1">
-      <c r="A19" s="12"/>
-    </row>
-    <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="12" t="s">
+    <row r="22" spans="1:2" ht="55" customHeight="1">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="23" spans="1:2" ht="90">
+      <c r="A23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="9" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="B22" s="7" t="s">
+    <row r="25" spans="1:2" ht="30">
+      <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="B23" s="6" t="s">
+    <row r="26" spans="1:2" ht="30">
+      <c r="B26" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="6" t="s">
+    <row r="27" spans="1:2">
+      <c r="B27" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="28" t="s">
+    <row r="28" spans="1:2">
+      <c r="B28" s="28" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/gbif-ipt-docs/downloads/event_ipt_template_v2_example_data.xlsx
+++ b/gbif-ipt-docs/downloads/event_ipt_template_v2_example_data.xlsx
@@ -7,12 +7,12 @@
     <workbookView xWindow="2180" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sampling Events" sheetId="6" r:id="rId1"/>
-    <sheet name="Associated Occurrences" sheetId="7" r:id="rId2"/>
+    <sheet name="Sampling Events" sheetId="8" r:id="rId1"/>
+    <sheet name="Associated Occurrences" sheetId="9" r:id="rId2"/>
     <sheet name="README" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="occurrence" localSheetId="1">'Associated Occurrences'!$C$1:$O$13</definedName>
+    <definedName name="occurrence" localSheetId="1">'Associated Occurrences'!$C$1:$O$10</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -883,7 +883,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="109">
   <si>
     <t>occurrenceID</t>
   </si>
@@ -1032,60 +1032,6 @@
     <t>No occurrences of Lepidoptera recorded for entire transect</t>
   </si>
   <si>
-    <t>Jerusalem (Har HaZofim Botanical Garden)</t>
-  </si>
-  <si>
-    <t>13:27:02Z/14:00:02Z</t>
-  </si>
-  <si>
-    <t>35.244</t>
-  </si>
-  <si>
-    <t>31.7945</t>
-  </si>
-  <si>
-    <t>tr040-s7</t>
-  </si>
-  <si>
-    <t>3430-tr040-s7</t>
-  </si>
-  <si>
-    <t>35.2445</t>
-  </si>
-  <si>
-    <t>31.794</t>
-  </si>
-  <si>
-    <t>tr040-s6</t>
-  </si>
-  <si>
-    <t>3430-tr040-s6</t>
-  </si>
-  <si>
-    <t>35.245</t>
-  </si>
-  <si>
-    <t>31.7935</t>
-  </si>
-  <si>
-    <t>tr040-s5</t>
-  </si>
-  <si>
-    <t>3430-tr040-s5</t>
-  </si>
-  <si>
-    <t>31.793</t>
-  </si>
-  <si>
-    <t>tr040-s4</t>
-  </si>
-  <si>
-    <t>3430-tr040-s4</t>
-  </si>
-  <si>
-    <t>10:51:02Z/11:23:02Z</t>
-  </si>
-  <si>
     <t>1382-tr009-s00</t>
   </si>
   <si>
@@ -1164,79 +1110,16 @@
     <t>present</t>
   </si>
   <si>
-    <t>Pieridae</t>
-  </si>
-  <si>
-    <t>Leptotes  pirithous</t>
-  </si>
-  <si>
     <t>Lycaenidae</t>
   </si>
   <si>
-    <t>Carcharodus  alceae</t>
-  </si>
-  <si>
-    <t>Hesperiidae</t>
-  </si>
-  <si>
     <t>Lycaena  thersamon</t>
   </si>
   <si>
-    <t>Colotis  fausta</t>
-  </si>
-  <si>
-    <t>Anaphaeis  aurota</t>
-  </si>
-  <si>
-    <t>Alon Toledo</t>
-  </si>
-  <si>
-    <t>Polyommatus  icarus</t>
-  </si>
-  <si>
-    <t>zelleri</t>
-  </si>
-  <si>
-    <t>Aricia  agestis</t>
-  </si>
-  <si>
     <t>Eviatar Fingold</t>
   </si>
   <si>
     <t>1382-tr009-s00-0</t>
-  </si>
-  <si>
-    <t>3430-tr040-s4-20434</t>
-  </si>
-  <si>
-    <t>3430-tr040-s4-20441</t>
-  </si>
-  <si>
-    <t>3430-tr040-s5-20435</t>
-  </si>
-  <si>
-    <t>3430-tr040-s6-20421</t>
-  </si>
-  <si>
-    <t>3430-tr040-s6-20422</t>
-  </si>
-  <si>
-    <t>3430-tr040-s6-20424</t>
-  </si>
-  <si>
-    <t>3430-tr040-s6-20425</t>
-  </si>
-  <si>
-    <t>3430-tr040-s6-20436</t>
-  </si>
-  <si>
-    <t>3430-tr040-s6-20442</t>
-  </si>
-  <si>
-    <t>3430-tr040-s6-20445</t>
-  </si>
-  <si>
-    <t>3430-tr040-s7-20437</t>
   </si>
   <si>
     <t>Reference:</t>
@@ -1338,6 +1221,87 @@
   <si>
     <t>http://www.gbif.org/dataset/647ae6f8-8e26-4189-b448-02b45b7ad884</t>
   </si>
+  <si>
+    <t>34.81151</t>
+  </si>
+  <si>
+    <t>31.28945</t>
+  </si>
+  <si>
+    <t>tr056-s9</t>
+  </si>
+  <si>
+    <t>Nahal Kovshim Beer Sheva</t>
+  </si>
+  <si>
+    <t>12:25:02Z/13:10:02Z</t>
+  </si>
+  <si>
+    <t>3502-tr056-s9</t>
+  </si>
+  <si>
+    <t>34.81112</t>
+  </si>
+  <si>
+    <t>31.29077</t>
+  </si>
+  <si>
+    <t>tr056-s6</t>
+  </si>
+  <si>
+    <t>3502-tr056-s6</t>
+  </si>
+  <si>
+    <t>09:28:02Z/10:16:02Z</t>
+  </si>
+  <si>
+    <t>994-tr009-s00</t>
+  </si>
+  <si>
+    <t>Zvika Avni</t>
+  </si>
+  <si>
+    <t>Azanus  ubaldus</t>
+  </si>
+  <si>
+    <t>3502-tr056-s9-21131</t>
+  </si>
+  <si>
+    <t>Tarucus  balkanica</t>
+  </si>
+  <si>
+    <t>3502-tr056-s9-21122</t>
+  </si>
+  <si>
+    <t>Azanus  jesous</t>
+  </si>
+  <si>
+    <t>3502-tr056-s9-21116</t>
+  </si>
+  <si>
+    <t>3502-tr056-s6-21132</t>
+  </si>
+  <si>
+    <t>3502-tr056-s6-21129</t>
+  </si>
+  <si>
+    <t>Deudorix  livia</t>
+  </si>
+  <si>
+    <t>3502-tr056-s6-21127</t>
+  </si>
+  <si>
+    <t>Nymphalidae</t>
+  </si>
+  <si>
+    <t>Melitaea  trivia</t>
+  </si>
+  <si>
+    <t>3502-tr056-s6-21126</t>
+  </si>
+  <si>
+    <t>3502-tr056-s6-21114</t>
+  </si>
 </sst>
 </file>
 
@@ -1346,7 +1310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1457,6 +1421,13 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1611,184 +1582,182 @@
   </borders>
   <cellStyleXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1834,7 +1803,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="142" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="141" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1844,83 +1813,86 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="173" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="173" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="174">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
@@ -1951,80 +1923,79 @@
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="142" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="1" builtinId="10"/>
+    <cellStyle name="Note 2" xfId="173"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2357,10 +2328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2369,13 +2340,13 @@
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.1640625" customWidth="1"/>
     <col min="4" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="37.6640625" customWidth="1"/>
+    <col min="12" max="12" width="31.1640625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="16.33203125" customWidth="1"/>
     <col min="15" max="16" width="14.5" customWidth="1"/>
@@ -2385,344 +2356,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="G1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="29" customFormat="1">
-      <c r="A2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="Q1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2">
         <v>250</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="30">
-        <v>41314</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="29">
-        <v>39</v>
+      <c r="F2" s="17">
+        <v>41193</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2">
+        <v>284</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" s="29">
+      <c r="P2" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2">
         <v>25</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="29" customFormat="1">
-      <c r="A3" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3">
         <v>250</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="30">
-        <v>42256</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="29">
-        <v>251</v>
-      </c>
-      <c r="J3" s="29" t="s">
+      <c r="F3" s="17">
+        <v>42296</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3">
+        <v>291</v>
+      </c>
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" s="29">
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3">
         <v>25</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="29" customFormat="1">
-      <c r="A4" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4">
         <v>250</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="30">
-        <v>42256</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="29">
-        <v>251</v>
-      </c>
-      <c r="J4" s="29" t="s">
+      <c r="F4" s="17">
+        <v>42296</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4">
+        <v>291</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q4" s="29">
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4">
         <v>25</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="29" customFormat="1">
-      <c r="A5" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="29">
-        <v>250</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="30">
-        <v>42256</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="29">
-        <v>251</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" s="29">
-        <v>25</v>
-      </c>
-      <c r="R5" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="29" customFormat="1">
-      <c r="A6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="29">
-        <v>250</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="30">
-        <v>42256</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="29">
-        <v>251</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q6" s="29">
-        <v>25</v>
-      </c>
-      <c r="R6" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="29" t="s">
+      <c r="S4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2740,10 +2599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2769,697 +2628,533 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="27" customFormat="1">
+      <c r="A2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="20" t="s">
+      <c r="C2" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="27">
+        <v>0</v>
+      </c>
+      <c r="E2" s="27">
+        <v>0</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="32"/>
+      <c r="O2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q2" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="27" customFormat="1">
+      <c r="A3" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="27">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27">
+        <v>3</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="27" customFormat="1">
+      <c r="A4" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="27">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="27" customFormat="1">
+      <c r="A5" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="27">
+        <v>3</v>
+      </c>
+      <c r="E5" s="27">
+        <v>3</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="27" customFormat="1">
+      <c r="A6" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="27" customFormat="1">
+      <c r="A7" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="I7" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="29" customFormat="1">
-      <c r="A2" s="29" t="s">
+      <c r="O7" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="27" customFormat="1">
+      <c r="A8" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1</v>
+      </c>
+      <c r="E8" s="27">
+        <v>1</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="G8" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="29">
-        <v>0</v>
-      </c>
-      <c r="E2" s="29">
-        <v>0</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R8" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="29" customFormat="1">
-      <c r="A3" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="29" t="s">
+    <row r="9" spans="1:18" s="27" customFormat="1">
+      <c r="A9" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="27">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="27" customFormat="1">
+      <c r="A10" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="29">
-        <v>3</v>
-      </c>
-      <c r="E3" s="29">
-        <v>3</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q3" s="29" t="s">
+      <c r="I10" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="29" customFormat="1">
-      <c r="A4" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="29">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29">
-        <v>1</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P4" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q4" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="29" customFormat="1">
-      <c r="A5" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q5" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="29" customFormat="1">
-      <c r="A6" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="29">
-        <v>1</v>
-      </c>
-      <c r="E6" s="29">
-        <v>1</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="29" customFormat="1">
-      <c r="A7" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="29">
-        <v>2</v>
-      </c>
-      <c r="E7" s="29">
-        <v>2</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="29" customFormat="1">
-      <c r="A8" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="29">
-        <v>1</v>
-      </c>
-      <c r="E8" s="29">
-        <v>1</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R8" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="29" customFormat="1">
-      <c r="A9" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="29">
-        <v>1</v>
-      </c>
-      <c r="E9" s="29">
-        <v>1</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q9" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="29" customFormat="1">
-      <c r="A10" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="29">
-        <v>20</v>
-      </c>
-      <c r="E10" s="29">
-        <v>20</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q10" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="29" customFormat="1">
-      <c r="A11" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="29">
-        <v>4</v>
-      </c>
-      <c r="E11" s="29">
-        <v>4</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="29" customFormat="1">
-      <c r="A12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="29">
-        <v>2</v>
-      </c>
-      <c r="E12" s="29">
-        <v>2</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q12" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="29" customFormat="1">
-      <c r="A13" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="29">
-        <v>1</v>
-      </c>
-      <c r="E13" s="29">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q13" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" s="29" t="s">
+      <c r="R10" s="27" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3483,166 +3178,166 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="27.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20">
-      <c r="A2" s="17"/>
-      <c r="B2" s="11" t="s">
-        <v>117</v>
+      <c r="A2" s="15"/>
+      <c r="B2" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="17"/>
-      <c r="B4" s="23" t="s">
-        <v>114</v>
+      <c r="A4" s="15"/>
+      <c r="B4" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="21"/>
     </row>
     <row r="6" spans="1:2" ht="30">
-      <c r="A6" s="17"/>
-      <c r="B6" s="23" t="s">
-        <v>116</v>
+      <c r="A6" s="15"/>
+      <c r="B6" s="21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="26" t="s">
-        <v>115</v>
+      <c r="A7" s="15"/>
+      <c r="B7" s="24" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="23" t="s">
-        <v>119</v>
+      <c r="A9" s="15"/>
+      <c r="B9" s="21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="26" t="s">
-        <v>120</v>
+      <c r="A10" s="15"/>
+      <c r="B10" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="27" t="s">
-        <v>106</v>
+      <c r="A12" s="15"/>
+      <c r="B12" s="25" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28">
-      <c r="A13" s="17"/>
-      <c r="B13" s="24" t="s">
-        <v>108</v>
+      <c r="A13" s="15"/>
+      <c r="B13" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" spans="1:2" ht="16" thickBot="1">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
-      <c r="A16" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>107</v>
+      <c r="A16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="12"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="12"/>
-      <c r="B19" s="6" t="s">
-        <v>111</v>
+      <c r="A19" s="10"/>
+      <c r="B19" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="28" t="s">
-        <v>118</v>
+      <c r="A21" s="10"/>
+      <c r="B21" s="26" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="55" customHeight="1">
-      <c r="A22" s="12"/>
+      <c r="A22" s="10"/>
     </row>
     <row r="23" spans="1:2" ht="90">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>112</v>
+      <c r="B23" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="B26" s="6" t="s">
-        <v>113</v>
+      <c r="B26" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="B28" s="28" t="s">
-        <v>118</v>
+      <c r="B28" s="26" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
